--- a/Migration.xlsx
+++ b/Migration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Data\Project\vuon-uom-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF5DD6-5A20-40D5-984D-2FB1C9443E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F972BAD6-2EA2-4E7A-99A3-A116E87D4624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EEE87401-47A2-492C-A019-9468F83D21E0}"/>
   </bookViews>
@@ -318,17 +318,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -701,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702E7D16-AE5D-48EA-9B22-04562E665605}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1035,6 +1025,10 @@
       <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="C29" s="4" t="str">
+        <f>"'"&amp;B29&amp;"' =&gt; Null,"</f>
+        <v>'ngay_sinh_cua_con' =&gt; Null,</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -1043,6 +1037,10 @@
       <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="C30" s="4" t="str">
+        <f t="shared" ref="C30:C41" si="0">"'"&amp;B30&amp;"' =&gt; Null,"</f>
+        <v>'khoa_tai_khoan' =&gt; Null,</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -1051,6 +1049,10 @@
       <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'ma_so_thue' =&gt; Null,</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -1059,6 +1061,10 @@
       <c r="B32" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="C32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'trang_thai_vao_ca' =&gt; Null,</v>
+      </c>
       <c r="D32" s="4" t="s">
         <v>65</v>
       </c>
@@ -1066,90 +1072,126 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'ten_ngan_hang' =&gt; Null,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'so_tai_khoan' =&gt; Null,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'chu_tai_khoan' =&gt; Null,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'is_finish' =&gt; Null,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'leader_id' =&gt; Null,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'token_facebook' =&gt; Null,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'token_google' =&gt; Null,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'id_facebook' =&gt; Null,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'id_google' =&gt; Null,</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C5 B7:C7 B6 B8 B9:C10 B12:C1048576 B11">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  <conditionalFormatting sqref="B1:C5 B7:C7 B6 B8 B9:C10 B11 B12:C1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C10 B12:C1048576 B11">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="B1:C10 B11 B12:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
@@ -1158,6 +1200,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
